--- a/data/trans_orig/Q20A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08398728451512243</v>
+        <v>0.08386722688566516</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1040101241470273</v>
+        <v>0.1039016630531937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08790600374011007</v>
+        <v>0.08963853688501898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09858905937243659</v>
+        <v>0.1009517611727333</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09696265905606365</v>
+        <v>0.09826172917476542</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1100051684879002</v>
+        <v>0.1106640734925691</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08419624559064617</v>
+        <v>0.08556516091232327</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07807125049410772</v>
+        <v>0.08032225912549473</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09932565009608847</v>
+        <v>0.1007869433012772</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1124995474267633</v>
+        <v>0.1139199772644879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09413587936525608</v>
+        <v>0.0928365876806846</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09361329871969273</v>
+        <v>0.09494885428025915</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1541206332023269</v>
+        <v>0.1616377892120214</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1661558428507233</v>
+        <v>0.1643536235337247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2067519694396917</v>
+        <v>0.2120643319727756</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1631211598139685</v>
+        <v>0.1687943732762687</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1824617954074375</v>
+        <v>0.1815196060119794</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1758676502892754</v>
+        <v>0.1719557358445519</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1510983467590335</v>
+        <v>0.1535217955930626</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1266963131545064</v>
+        <v>0.1259206126575473</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1557529057788179</v>
+        <v>0.1534245525973243</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1592671776821928</v>
+        <v>0.1570205670734383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1486986690121085</v>
+        <v>0.1546005050946341</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1322124046025832</v>
+        <v>0.1329337117945485</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.0840734527024409</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07547060319290634</v>
+        <v>0.07547060319290635</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05298875340818333</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02079121765977031</v>
+        <v>0.02026370133819445</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05908094047129089</v>
+        <v>0.05853729150801577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03663881118955008</v>
+        <v>0.03690797734483381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05144880619079499</v>
+        <v>0.05182036835505219</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0654787737153949</v>
+        <v>0.0660103994147329</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0901289120296925</v>
+        <v>0.08933500417225254</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0699288016347739</v>
+        <v>0.06837891652795271</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06134660217921689</v>
+        <v>0.06363112053450097</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04532917910777253</v>
+        <v>0.04478723474559108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07979284957142244</v>
+        <v>0.07979872474456992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05654082099262553</v>
+        <v>0.05565249501135024</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06056117403866425</v>
+        <v>0.06013290993222976</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03845313965512043</v>
+        <v>0.037629589328465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1683562937482958</v>
+        <v>0.1632223817495272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05922937371861241</v>
+        <v>0.05988297629415479</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1136099962698449</v>
+        <v>0.1144927937297024</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09687688178633669</v>
+        <v>0.09578552883399</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1302053164293243</v>
+        <v>0.1296015247735444</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1002948501172953</v>
+        <v>0.1000592552625053</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09135772675124354</v>
+        <v>0.09375220488702432</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06140849977067502</v>
+        <v>0.06294298765417096</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1360724397392536</v>
+        <v>0.1396101407453874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0754866713336656</v>
+        <v>0.07466032996112917</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09248158388704338</v>
+        <v>0.0932854486367127</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.08063440360292858</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08919329517328975</v>
+        <v>0.08919329517328976</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04235803044634254</v>
+        <v>0.04122338712991945</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01637678829316015</v>
+        <v>0.01477111888221133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03601383111817974</v>
+        <v>0.03765503778453217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05065491319570566</v>
+        <v>0.04962792932248741</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05898525184007784</v>
+        <v>0.06121741903319506</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07942429252198388</v>
+        <v>0.08222740672857952</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07420374434466602</v>
+        <v>0.07182763491060594</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0539357553014236</v>
+        <v>0.05680705916746657</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0580675021607045</v>
+        <v>0.05459636464239637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05094863134808244</v>
+        <v>0.05141792454893121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06213727290009215</v>
+        <v>0.06226078167810271</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0610164406500101</v>
+        <v>0.06091950942620662</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1444005657636709</v>
+        <v>0.1379880381052893</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05566954474465313</v>
+        <v>0.05452931101263041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09256258127115859</v>
+        <v>0.09436036702810463</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2996096952392207</v>
+        <v>0.2851170211884861</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1210622193030324</v>
+        <v>0.1251973152818833</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1588920512590607</v>
+        <v>0.1592697396477247</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1420668634721588</v>
+        <v>0.1413353245406598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09540243019872753</v>
+        <v>0.09567586584631479</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1145107922773028</v>
+        <v>0.1124482480064187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09367615466018064</v>
+        <v>0.09452630453636447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1059225696341416</v>
+        <v>0.1046968290485438</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1817877083469349</v>
+        <v>0.1849384556298435</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.08042674443265101</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08267369589974335</v>
+        <v>0.08267369589974337</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05004257641567882</v>
+        <v>0.04995329917484501</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07464070616220783</v>
+        <v>0.07361266950298286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05468574520767</v>
+        <v>0.05363640365689291</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06730284516177318</v>
+        <v>0.0689116244275364</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0854882449517194</v>
+        <v>0.0847645760028522</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1042821233660915</v>
+        <v>0.1039433234197785</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08298455943532777</v>
+        <v>0.08134620005503931</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07113174155050979</v>
+        <v>0.0707623615496256</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07162933994345258</v>
+        <v>0.07159027289372102</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09396694784256061</v>
+        <v>0.09446720672363391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07149111938359715</v>
+        <v>0.07137888413089431</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07301721936153269</v>
+        <v>0.07163003064108353</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07949197704829494</v>
+        <v>0.07862779879145429</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1451327059947286</v>
+        <v>0.1292016525613472</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08329149397233811</v>
+        <v>0.08302845581461421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1282695493019126</v>
+        <v>0.1304264684409447</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1221863009491729</v>
+        <v>0.1209374141333079</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1361976243334195</v>
+        <v>0.1359654737672708</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1115423322608454</v>
+        <v>0.109499827573343</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09062886316935388</v>
+        <v>0.09140631807165644</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09450486455822488</v>
+        <v>0.09461017077948199</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1261589208209223</v>
+        <v>0.1272181054480772</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09142897154107019</v>
+        <v>0.09131907978937198</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1008141899301492</v>
+        <v>0.1011508247041092</v>
       </c>
     </row>
     <row r="16">
